--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/PInicial_product_backlog_puntos_historia MHP.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/PInicial_product_backlog_puntos_historia MHP.xlsx
@@ -4,19 +4,20 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Product_Backlog" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Product_Goal" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="gtfxPQJfP36OgweRgsHvwpokco/ns6taSiDti0ATuZo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="ykpcBDU8Owo3k8mbWmzTq7Y/r3sBTlWcND2T18ktv7Y="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Resultado de la actividad Planning Poker</t>
   </si>
@@ -206,12 +207,23 @@
 Con la finalidad de  analizar la actividad de los usuarios y tomar decisiones estratégicas.
                 </t>
   </si>
+  <si>
+    <t>Product Goal Proyecto Rutafit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+RutaFit busca convertirse en la plataforma móvil y web que centraliza, guía y potencia la práctica deportiva al aire
+libre, permitiendo a los usuarios descubrir, registrar y compartir rutas y eventos de manera segura, personalizada
+y basada en datos. El objetivo final es ofrecer una experiencia continua que combine geolocalización, comunidad
+y análisis para mejorar la actividad física de las personas y fortalecer la toma de decisiones de los administradores
+mediante reportes en tiempo real.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -245,6 +257,19 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -260,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border/>
     <border>
       <left style="thin">
@@ -276,11 +301,63 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -313,6 +390,19 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -322,6 +412,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -522,6 +616,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
@@ -1762,4 +1857,128 @@
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFCC0000"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="19"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="19"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="19"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="19"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="19"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="19"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="19"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="19"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="19"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="19"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="19"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="19"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="19"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="19"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="19"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="19"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:G20"/>
+    <mergeCell ref="A1:G2"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>